--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25944844-1898-4041-9D48-326D8A649B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB1BA0-FBE7-496B-857F-E7FF92AA77A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Location</t>
   </si>
@@ -37,52 +37,109 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Cape Schank</t>
-  </si>
-  <si>
-    <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
-  </si>
-  <si>
-    <t>30/12/20 11.40am-1.40pm</t>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>29/12/2020 01:30pm-01:45pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Lakes Entrance</t>
+  </si>
+  <si>
+    <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 11:15am-12:15pm</t>
+  </si>
+  <si>
+    <t>Case hired a boat</t>
+  </si>
+  <si>
+    <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/2020 5:00pm-6:30pm</t>
+  </si>
+  <si>
+    <t>Case attended outside premises</t>
+  </si>
+  <si>
+    <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/2020 11:15am-11:20am</t>
+  </si>
+  <si>
+    <t>Case picked up takeaway</t>
+  </si>
+  <si>
+    <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/2020 6:00pm-6:15pm</t>
+  </si>
+  <si>
+    <t>Mentone</t>
+  </si>
+  <si>
+    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+  </si>
+  <si>
+    <t>29/12/2020 07:30am-08:00am</t>
+  </si>
+  <si>
+    <t>31/12/2020 08:00am-08:30am</t>
+  </si>
+  <si>
+    <t>Mordialloc</t>
+  </si>
+  <si>
+    <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+  </si>
+  <si>
+    <t>28/12/20 2:00pm-5:00pm</t>
   </si>
   <si>
     <t>Case attended course</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Positive case at golf course</t>
+    <t>28/12/20 2pm-5:00pm</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Hallam</t>
-  </si>
-  <si>
-    <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
-  </si>
-  <si>
-    <t>30/12/20 6:15am-6:30am</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Case shopped in store for 15 mins</t>
-  </si>
-  <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
-  </si>
-  <si>
-    <t>23/12/20 8:00am-2:00pm</t>
-  </si>
-  <si>
-    <t>28/12/20 2pm-5:00pm</t>
+    <t>Mount Waverley</t>
+  </si>
+  <si>
+    <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+  </si>
+  <si>
+    <t>21/12/2020 2:00pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped for half an hour</t>
+  </si>
+  <si>
+    <t>Oakleigh</t>
+  </si>
+  <si>
+    <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+  </si>
+  <si>
+    <t>30/12/2020 11:00am-11:30am</t>
+  </si>
+  <si>
+    <t>Case shopped for 30 minutes</t>
   </si>
 </sst>
 </file>
@@ -446,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,33 +554,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -531,30 +588,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -565,18 +622,103 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB1BA0-FBE7-496B-857F-E7FF92AA77A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B1E79-41B0-4990-BD92-2500610A2C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -37,109 +48,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>29/12/2020 01:30pm-01:45pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
+    <t>Mount Waverley</t>
+  </si>
+  <si>
+    <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+  </si>
+  <si>
+    <t>21/12/2020 2:00pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped for half an hour</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>30/12/2020 2:00pm-2:30pm</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>Lakes Entrance</t>
-  </si>
-  <si>
-    <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 11:15am-12:15pm</t>
-  </si>
-  <si>
-    <t>Case hired a boat</t>
-  </si>
-  <si>
-    <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>30/12/2020 5:00pm-6:30pm</t>
-  </si>
-  <si>
-    <t>Case attended outside premises</t>
-  </si>
-  <si>
-    <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>30/12/2020 11:15am-11:20am</t>
-  </si>
-  <si>
-    <t>Case picked up takeaway</t>
-  </si>
-  <si>
-    <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>30/12/2020 6:00pm-6:15pm</t>
-  </si>
-  <si>
-    <t>Mentone</t>
-  </si>
-  <si>
-    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>29/12/2020 07:30am-08:00am</t>
-  </si>
-  <si>
-    <t>31/12/2020 08:00am-08:30am</t>
-  </si>
-  <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
-  </si>
-  <si>
-    <t>28/12/20 2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Case attended course</t>
-  </si>
-  <si>
-    <t>28/12/20 2pm-5:00pm</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Mount Waverley</t>
-  </si>
-  <si>
-    <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
-  </si>
-  <si>
-    <t>21/12/2020 2:00pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped for half an hour</t>
-  </si>
-  <si>
-    <t>Oakleigh</t>
-  </si>
-  <si>
-    <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
-  </si>
-  <si>
-    <t>30/12/2020 11:00am-11:30am</t>
-  </si>
-  <si>
-    <t>Case shopped for 30 minutes</t>
   </si>
 </sst>
 </file>
@@ -503,18 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,172 +481,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B1E79-41B0-4990-BD92-2500610A2C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDEA3AD-0321-4A32-A635-A734ADFA7687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -48,25 +37,46 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Mount Waverley</t>
-  </si>
-  <si>
-    <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
-  </si>
-  <si>
-    <t>21/12/2020 2:00pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped for half an hour</t>
+    <t>Black Rock</t>
+  </si>
+  <si>
+    <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
+  </si>
+  <si>
+    <t>30/12/20 5:30pm-5:55pm</t>
+  </si>
+  <si>
+    <t>Case shopped</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Box Hill South</t>
+  </si>
+  <si>
+    <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+  </si>
+  <si>
+    <t>30/12/20 12:00pm-12:40pm</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>29/12/20 01:30pm-01:45pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>29/12/2020 01:30pm-01:45pm</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>30/12/2020 2:00pm-2:30pm</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -430,18 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,19 +491,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDEA3AD-0321-4A32-A635-A734ADFA7687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31305120-6704-4BAE-B6F9-CC81EF97F374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Location</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Black Rock</t>
-  </si>
-  <si>
-    <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
-  </si>
-  <si>
-    <t>30/12/20 5:30pm-5:55pm</t>
+    <t>Camberwell</t>
+  </si>
+  <si>
+    <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+  </si>
+  <si>
+    <t>30/12/20 2:30pm-2:45pm</t>
   </si>
   <si>
     <t>Case shopped</t>
@@ -52,31 +52,106 @@
     <t>new</t>
   </si>
   <si>
-    <t>Box Hill South</t>
-  </si>
-  <si>
-    <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
-  </si>
-  <si>
-    <t>30/12/20 12:00pm-12:40pm</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>29/12/20 01:30pm-01:45pm</t>
+    <t>Lakes Entrance</t>
+  </si>
+  <si>
+    <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 11:15am-12:15pm</t>
+  </si>
+  <si>
+    <t>Case hired a boat</t>
+  </si>
+  <si>
+    <t>29/12/2020 11:15am-12:15pm</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/20 5:00pm-6:30pm</t>
+  </si>
+  <si>
+    <t>Case attended outside premises</t>
+  </si>
+  <si>
+    <t>30/12/2020 5:00pm-6:30pm</t>
+  </si>
+  <si>
+    <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/20 11:15am-11:20am</t>
+  </si>
+  <si>
+    <t>Case picked up takeaway</t>
+  </si>
+  <si>
+    <t>30/12/2020 11:15am-11:20am</t>
+  </si>
+  <si>
+    <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/20 6:00pm-6:15pm</t>
   </si>
   <si>
     <t>Case shopped in store</t>
   </si>
   <si>
-    <t>29/12/2020 01:30pm-01:45pm</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>30/12/2020 6:00pm-6:15pm</t>
+  </si>
+  <si>
+    <t>Mentone</t>
+  </si>
+  <si>
+    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+  </si>
+  <si>
+    <t>29/12/20 07:30am-08:00am</t>
+  </si>
+  <si>
+    <t>29/12/2020 07:30am-08:00am</t>
+  </si>
+  <si>
+    <t>31/12/20 08:00am-08:30am</t>
+  </si>
+  <si>
+    <t>31/12/2020 08:00am-08:30am</t>
+  </si>
+  <si>
+    <t>Mount Waverley</t>
+  </si>
+  <si>
+    <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+  </si>
+  <si>
+    <t>30/12/20 2:00pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped for half an hour</t>
+  </si>
+  <si>
+    <t>30/12/2020 2:00pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Oakleigh</t>
+  </si>
+  <si>
+    <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+  </si>
+  <si>
+    <t>30/12/20 11:00am-11:30am</t>
+  </si>
+  <si>
+    <t>Case shopped for 30 minutes</t>
+  </si>
+  <si>
+    <t>30/12/2020 11:00am-11:30am</t>
   </si>
 </sst>
 </file>
@@ -440,18 +515,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -508,36 +583,257 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31305120-6704-4BAE-B6F9-CC81EF97F374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D868D628-E22D-4C07-91E0-A8DF9AC782B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Location</t>
   </si>
@@ -37,91 +37,40 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Camberwell</t>
-  </si>
-  <si>
-    <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
-  </si>
-  <si>
-    <t>30/12/20 2:30pm-2:45pm</t>
-  </si>
-  <si>
-    <t>Case shopped</t>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>29/12/20 01:30pm-01:45pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>29/12/20 2:00pm-2:30pm</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Lakes Entrance</t>
-  </si>
-  <si>
-    <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/20 11:15am-12:15pm</t>
-  </si>
-  <si>
-    <t>Case hired a boat</t>
-  </si>
-  <si>
-    <t>29/12/2020 11:15am-12:15pm</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>30/12/20 5:00pm-6:30pm</t>
-  </si>
-  <si>
-    <t>Case attended outside premises</t>
-  </si>
-  <si>
-    <t>30/12/2020 5:00pm-6:30pm</t>
-  </si>
-  <si>
-    <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>30/12/20 11:15am-11:20am</t>
-  </si>
-  <si>
-    <t>Case picked up takeaway</t>
-  </si>
-  <si>
-    <t>30/12/2020 11:15am-11:20am</t>
-  </si>
-  <si>
-    <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>30/12/20 6:00pm-6:15pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>30/12/2020 6:00pm-6:15pm</t>
-  </si>
-  <si>
-    <t>Mentone</t>
-  </si>
-  <si>
-    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>29/12/20 07:30am-08:00am</t>
-  </si>
-  <si>
-    <t>29/12/2020 07:30am-08:00am</t>
-  </si>
-  <si>
-    <t>31/12/20 08:00am-08:30am</t>
-  </si>
-  <si>
-    <t>31/12/2020 08:00am-08:30am</t>
+    <t>Mordialloc</t>
+  </si>
+  <si>
+    <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+  </si>
+  <si>
+    <t>28/12/20 12:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Case attended course</t>
+  </si>
+  <si>
+    <t>28/12/20 2:00pm-5:00pm</t>
   </si>
   <si>
     <t>Mount Waverley</t>
@@ -136,22 +85,7 @@
     <t>Case shopped for half an hour</t>
   </si>
   <si>
-    <t>30/12/2020 2:00pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Oakleigh</t>
-  </si>
-  <si>
-    <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
-  </si>
-  <si>
-    <t>30/12/20 11:00am-11:30am</t>
-  </si>
-  <si>
-    <t>Case shopped for 30 minutes</t>
-  </si>
-  <si>
-    <t>30/12/2020 11:00am-11:30am</t>
+    <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
   </si>
 </sst>
 </file>
@@ -170,7 +104,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,18 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,50 +499,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -617,223 +550,36 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D868D628-E22D-4C07-91E0-A8DF9AC782B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6941AB-9068-4D3F-B7A2-3AF8B1A8EA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -37,55 +48,73 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>30/12/20 10:45am- 12:15pm</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Bentleigh</t>
+  </si>
+  <si>
+    <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+  </si>
+  <si>
+    <t>22/12/20 12:00pm-12:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brighton Beach  Brighton, VIC 3186</t>
+  </si>
+  <si>
+    <t>29/12/20 12:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>Case attended beach</t>
+  </si>
+  <si>
     <t>Cheltenham</t>
   </si>
   <si>
-    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>29/12/20 01:30pm-01:45pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>29/12/20 2:00pm-2:30pm</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
-  </si>
-  <si>
-    <t>28/12/20 12:00pm-6:00pm</t>
-  </si>
-  <si>
-    <t>Case attended course</t>
-  </si>
-  <si>
-    <t>28/12/20 2:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Mount Waverley</t>
-  </si>
-  <si>
-    <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
-  </si>
-  <si>
-    <t>30/12/20 2:00pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped for half an hour</t>
-  </si>
-  <si>
-    <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+    <t>Angus and Cootes Jeweller  Southland Shopping Centre, 2096/1239 Nepean Hwy, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>28/12/2020 2:30pm-2:50pm</t>
+  </si>
+  <si>
+    <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>22/12/2020 3:50pm-4:05pm</t>
+  </si>
+  <si>
+    <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>22/12/2020 3:30pm-3:50pm</t>
+  </si>
+  <si>
+    <t>Mentone</t>
+  </si>
+  <si>
+    <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+  </si>
+  <si>
+    <t>23/12/20 2:45pm-3:05pm</t>
+  </si>
+  <si>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+  </si>
+  <si>
+    <t>30/12/20 4:00m- 5:50pm</t>
   </si>
 </sst>
 </file>
@@ -448,18 +477,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.06640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,73 +513,64 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -559,27 +579,61 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6941AB-9068-4D3F-B7A2-3AF8B1A8EA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26A098-FD9E-44CF-AA3E-5337BCD904C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Location</t>
   </si>
@@ -51,70 +40,34 @@
     <t>30/12/20 10:45am- 12:15pm</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Angus and Cootes Jeweller  Southland Shopping Centre, 2096/1239 Nepean Hwy, Cheltenham VIC 3192</t>
+  </si>
+  <si>
+    <t>28/12/2020 2:30pm-2:50pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>Bentleigh</t>
-  </si>
-  <si>
-    <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
-  </si>
-  <si>
-    <t>22/12/20 12:00pm-12:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Brighton Beach  Brighton, VIC 3186</t>
-  </si>
-  <si>
-    <t>29/12/20 12:00pm-3:00pm</t>
-  </si>
-  <si>
-    <t>Case attended beach</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Angus and Cootes Jeweller  Southland Shopping Centre, 2096/1239 Nepean Hwy, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>28/12/2020 2:30pm-2:50pm</t>
-  </si>
-  <si>
-    <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>22/12/2020 3:50pm-4:05pm</t>
-  </si>
-  <si>
-    <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>22/12/2020 3:30pm-3:50pm</t>
-  </si>
-  <si>
-    <t>Mentone</t>
-  </si>
-  <si>
-    <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>23/12/20 2:45pm-3:05pm</t>
-  </si>
-  <si>
     <t>Moorabbin</t>
   </si>
   <si>
     <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
   </si>
   <si>
-    <t>30/12/20 4:00m- 5:50pm</t>
+    <t>30/12/20 10:45am-12:15pm</t>
   </si>
 </sst>
 </file>
@@ -133,6 +86,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -477,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -486,8 +440,8 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,30 +490,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -570,70 +524,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF26A098-FD9E-44CF-AA3E-5337BCD904C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655C58D-6294-4900-8F74-1D17048E95CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Location</t>
   </si>
@@ -37,37 +37,97 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>30/12/20 10:45am- 12:15pm</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>Cheltenham</t>
   </si>
   <si>
-    <t>Angus and Cootes Jeweller  Southland Shopping Centre, 2096/1239 Nepean Hwy, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>28/12/2020 2:30pm-2:50pm</t>
+    <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
+  </si>
+  <si>
+    <t>22/12/20 6.45pm - 7pm</t>
   </si>
   <si>
     <t>Case shopped in store</t>
   </si>
   <si>
-    <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
-  </si>
-  <si>
-    <t>30/12/20 10:45am-12:15pm</t>
+    <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+  </si>
+  <si>
+    <t>03/01/21, 3.30pm - 3.45pm</t>
+  </si>
+  <si>
+    <t>Coles, Westfield Southland</t>
+  </si>
+  <si>
+    <t>22/12/20 11:50am-12:10pm</t>
+  </si>
+  <si>
+    <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+  </si>
+  <si>
+    <t>22/12/20 6.30pm - 6.45pm</t>
+  </si>
+  <si>
+    <t>28/12/20 2.30pm-3pm</t>
+  </si>
+  <si>
+    <t>Specsavers, 1004-1005 Westfield Southland</t>
+  </si>
+  <si>
+    <t>22/12/20 11:00am-1145am</t>
+  </si>
+  <si>
+    <t>Dandenong</t>
+  </si>
+  <si>
+    <t>Kmart - Clayton Plaza, 2107 Dandenong Rd</t>
+  </si>
+  <si>
+    <t>30/12/20 7pm - 7.30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store</t>
+  </si>
+  <si>
+    <t>Woolworths - Clayton Plaza, 2107 Dandenong Rd</t>
+  </si>
+  <si>
+    <t>30/12/20 7.30pm - 745pm</t>
+  </si>
+  <si>
+    <t>Frankston</t>
+  </si>
+  <si>
+    <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+  </si>
+  <si>
+    <t>31/12/20 2pm - 3pm</t>
+  </si>
+  <si>
+    <t>Mount Martha</t>
+  </si>
+  <si>
+    <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+  </si>
+  <si>
+    <t>31/12/20 3pm - 3.15pm</t>
+  </si>
+  <si>
+    <t>Takeaway coffee</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>IKEA Springvale, 917 Princes Hwy</t>
+  </si>
+  <si>
+    <t>29/12/20 4pm - 6pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store and dined at cafe</t>
   </si>
 </sst>
 </file>
@@ -431,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -439,10 +499,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,76 +527,187 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655C58D-6294-4900-8F74-1D17048E95CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109A9C7-C6C8-4C46-B2AF-F5408A2CCAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Location</t>
   </si>
@@ -37,46 +37,82 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brighton Beach  Brighton, VIC 3186</t>
+  </si>
+  <si>
+    <t>26/12/20 12:00pm-1:00pm</t>
+  </si>
+  <si>
+    <t>Case attended beach</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Burwood East</t>
+  </si>
+  <si>
+    <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
+  </si>
+  <si>
+    <t>28/12/20 6.30pm - 7pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>Kmart Burwood, 172 Burwood Highway</t>
+  </si>
+  <si>
+    <t>28/12/20 6.15pm - 6.30pm</t>
+  </si>
+  <si>
+    <t>Camberwell</t>
+  </si>
+  <si>
+    <t>Coles Middle Camberwell, 751 Riversdale Road</t>
+  </si>
+  <si>
+    <t>28/12/20 12pm - 12.30pm</t>
+  </si>
+  <si>
     <t>Cheltenham</t>
   </si>
   <si>
-    <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
-  </si>
-  <si>
-    <t>22/12/20 6.45pm - 7pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
-  </si>
-  <si>
-    <t>03/01/21, 3.30pm - 3.45pm</t>
-  </si>
-  <si>
-    <t>Coles, Westfield Southland</t>
-  </si>
-  <si>
-    <t>22/12/20 11:50am-12:10pm</t>
-  </si>
-  <si>
-    <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
-  </si>
-  <si>
-    <t>22/12/20 6.30pm - 6.45pm</t>
-  </si>
-  <si>
-    <t>28/12/20 2.30pm-3pm</t>
-  </si>
-  <si>
-    <t>Specsavers, 1004-1005 Westfield Southland</t>
-  </si>
-  <si>
-    <t>22/12/20 11:00am-1145am</t>
+    <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
+  </si>
+  <si>
+    <t>22/12/20 12.15pm - 12.45pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
+    <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
+  </si>
+  <si>
+    <t>22/12/20 10.30am - 11am</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Kmart - M-City, 2107 Dandenong Road, Clayton</t>
+  </si>
+  <si>
+    <t>30/12/20 7pm - 7.30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store</t>
+  </si>
+  <si>
+    <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+  </si>
+  <si>
+    <t>30/12/20 7.30pm - 745pm</t>
   </si>
   <si>
     <t>Dandenong</t>
@@ -85,49 +121,31 @@
     <t>Kmart - Clayton Plaza, 2107 Dandenong Rd</t>
   </si>
   <si>
-    <t>30/12/20 7pm - 7.30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store</t>
+    <t>old</t>
   </si>
   <si>
     <t>Woolworths - Clayton Plaza, 2107 Dandenong Rd</t>
   </si>
   <si>
-    <t>30/12/20 7.30pm - 745pm</t>
-  </si>
-  <si>
-    <t>Frankston</t>
-  </si>
-  <si>
-    <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
-  </si>
-  <si>
-    <t>31/12/20 2pm - 3pm</t>
-  </si>
-  <si>
-    <t>Mount Martha</t>
-  </si>
-  <si>
-    <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
-  </si>
-  <si>
-    <t>31/12/20 3pm - 3.15pm</t>
-  </si>
-  <si>
-    <t>Takeaway coffee</t>
-  </si>
-  <si>
-    <t>Springvale</t>
-  </si>
-  <si>
-    <t>IKEA Springvale, 917 Princes Hwy</t>
-  </si>
-  <si>
-    <t>29/12/20 4pm - 6pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store and dined at cafe</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>23/12/2- 11:00pm-11:30pm</t>
+  </si>
+  <si>
+    <t>Case attended Federation Square</t>
+  </si>
+  <si>
+    <t>Mentone</t>
+  </si>
+  <si>
+    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+  </si>
+  <si>
+    <t>23/12/20 11:00am-11:30am</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -499,10 +517,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,16 +560,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -559,16 +577,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -576,16 +594,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -593,16 +611,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -610,16 +628,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -627,16 +645,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -644,16 +662,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -661,52 +679,69 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109A9C7-C6C8-4C46-B2AF-F5408A2CCAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082F09E-AEBF-4F66-B8E3-B81B31716ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -37,115 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Brighton Beach  Brighton, VIC 3186</t>
-  </si>
-  <si>
-    <t>26/12/20 12:00pm-1:00pm</t>
-  </si>
-  <si>
-    <t>Case attended beach</t>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
+  </si>
+  <si>
+    <t>31/12/20 3:00pm - 5:00pm</t>
+  </si>
+  <si>
+    <t>Case vistied venue</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>Burwood East</t>
-  </si>
-  <si>
-    <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
-  </si>
-  <si>
-    <t>28/12/20 6.30pm - 7pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Kmart Burwood, 172 Burwood Highway</t>
-  </si>
-  <si>
-    <t>28/12/20 6.15pm - 6.30pm</t>
-  </si>
-  <si>
-    <t>Camberwell</t>
-  </si>
-  <si>
-    <t>Coles Middle Camberwell, 751 Riversdale Road</t>
-  </si>
-  <si>
-    <t>28/12/20 12pm - 12.30pm</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
-  </si>
-  <si>
-    <t>22/12/20 12.15pm - 12.45pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
-  </si>
-  <si>
-    <t>22/12/20 10.30am - 11am</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>Kmart - M-City, 2107 Dandenong Road, Clayton</t>
-  </si>
-  <si>
-    <t>30/12/20 7pm - 7.30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store</t>
-  </si>
-  <si>
-    <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
-  </si>
-  <si>
-    <t>30/12/20 7.30pm - 745pm</t>
-  </si>
-  <si>
-    <t>Dandenong</t>
-  </si>
-  <si>
-    <t>Kmart - Clayton Plaza, 2107 Dandenong Rd</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Woolworths - Clayton Plaza, 2107 Dandenong Rd</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>23/12/2- 11:00pm-11:30pm</t>
-  </si>
-  <si>
-    <t>Case attended Federation Square</t>
-  </si>
-  <si>
-    <t>Mentone</t>
-  </si>
-  <si>
-    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>23/12/20 11:00am-11:30am</t>
   </si>
 </sst>
 </file>
@@ -509,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -517,10 +421,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,193 +462,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082F09E-AEBF-4F66-B8E3-B81B31716ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DB370-C290-4443-AAE3-E6731D1ED471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -37,6 +37,39 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Chirnside Park</t>
+  </si>
+  <si>
+    <t>Woolworths  239-241 Maroondah Hwy, Chirnside Park</t>
+  </si>
+  <si>
+    <t>31/12/2020 10:00am - 10:15am</t>
+  </si>
+  <si>
+    <t>Case shopped at venue</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Kmart - 2107 Dandenong Road, Clayton</t>
+  </si>
+  <si>
+    <t>30/12/20 7pm - 7.30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store</t>
+  </si>
+  <si>
+    <t>Kmart - M-City, 2107 Dandenong Road, Clayton</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>Emerald</t>
   </si>
   <si>
@@ -46,10 +79,31 @@
     <t>31/12/20 3:00pm - 5:00pm</t>
   </si>
   <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
     <t>Case vistied venue</t>
   </si>
   <si>
-    <t>new</t>
+    <t>Frankston</t>
+  </si>
+  <si>
+    <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+  </si>
+  <si>
+    <t>31/12/20 2pm - 3pm</t>
+  </si>
+  <si>
+    <t>31/12/20 2pm-3pm</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
+  </si>
+  <si>
+    <t>1/01/21 2:00pm-5:00pm</t>
   </si>
 </sst>
 </file>
@@ -413,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -421,10 +475,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +516,125 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DB370-C290-4443-AAE3-E6731D1ED471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CBA100-78D1-4DA4-9C4B-C788F66EC4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -37,73 +48,73 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Bayside</t>
+  </si>
+  <si>
+    <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+  </si>
+  <si>
+    <t>31/12/20  3.00pm-3.15pm</t>
+  </si>
+  <si>
+    <t>Case shopped</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Bentleigh</t>
+  </si>
+  <si>
+    <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
+  </si>
+  <si>
+    <t>24/12/20 12:30pm-1:00pm</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+  </si>
+  <si>
+    <t>03/01/21, 3.30pm - 3.45pm</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>30/12/21, 3.30pm - 3.45pm</t>
+  </si>
+  <si>
     <t>Chirnside Park</t>
   </si>
   <si>
+    <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
+  </si>
+  <si>
+    <t>31/12/2020 10:00am - 10:15am</t>
+  </si>
+  <si>
+    <t>Case shopped at venue</t>
+  </si>
+  <si>
     <t>Woolworths  239-241 Maroondah Hwy, Chirnside Park</t>
   </si>
   <si>
-    <t>31/12/2020 10:00am - 10:15am</t>
-  </si>
-  <si>
-    <t>Case shopped at venue</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Clayton</t>
-  </si>
-  <si>
-    <t>Kmart - 2107 Dandenong Road, Clayton</t>
-  </si>
-  <si>
-    <t>30/12/20 7pm - 7.30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store</t>
-  </si>
-  <si>
-    <t>Kmart - M-City, 2107 Dandenong Road, Clayton</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Emerald</t>
-  </si>
-  <si>
-    <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
-  </si>
-  <si>
-    <t>31/12/20 3:00pm - 5:00pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>Case vistied venue</t>
-  </si>
-  <si>
-    <t>Frankston</t>
-  </si>
-  <si>
-    <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
-  </si>
-  <si>
-    <t>31/12/20 2pm - 3pm</t>
-  </si>
-  <si>
-    <t>31/12/20 2pm-3pm</t>
-  </si>
-  <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
-  </si>
-  <si>
-    <t>1/01/21 2:00pm-5:00pm</t>
+    <t>Glen Waverley</t>
+  </si>
+  <si>
+    <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+  </si>
+  <si>
+    <t>28/12/20 1:30pm-1:45pm</t>
+  </si>
+  <si>
+    <t>28/12/20 2:00pm-2:30pm</t>
   </si>
 </sst>
 </file>
@@ -470,13 +481,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
@@ -527,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -535,33 +546,33 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -569,67 +580,61 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CBA100-78D1-4DA4-9C4B-C788F66EC4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FB780C-CDD1-4167-B914-393569CF2E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Location</t>
   </si>
@@ -60,61 +49,76 @@
     <t>Case shopped</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brighton Beach  Brighton, VIC 3186</t>
+  </si>
+  <si>
+    <t>26/12/20 12:00pm-1:00pm</t>
+  </si>
+  <si>
+    <t>Case attended beach</t>
+  </si>
+  <si>
+    <t>26/12/20 12:00pm-3:00pm</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>Bentleigh</t>
-  </si>
-  <si>
-    <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
-  </si>
-  <si>
-    <t>24/12/20 12:30pm-1:00pm</t>
-  </si>
-  <si>
     <t>Cheltenham</t>
   </si>
   <si>
     <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
   </si>
   <si>
-    <t>03/01/21, 3.30pm - 3.45pm</t>
+    <t>30/12/20, 3.30pm - 3.45pm</t>
   </si>
   <si>
     <t>Case shopped in store</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>30/12/21, 3.30pm - 3.45pm</t>
   </si>
   <si>
-    <t>Chirnside Park</t>
-  </si>
-  <si>
-    <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
-  </si>
-  <si>
-    <t>31/12/2020 10:00am - 10:15am</t>
-  </si>
-  <si>
-    <t>Case shopped at venue</t>
-  </si>
-  <si>
-    <t>Woolworths  239-241 Maroondah Hwy, Chirnside Park</t>
-  </si>
-  <si>
-    <t>Glen Waverley</t>
-  </si>
-  <si>
-    <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
-  </si>
-  <si>
-    <t>28/12/20 1:30pm-1:45pm</t>
-  </si>
-  <si>
-    <t>28/12/20 2:00pm-2:30pm</t>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Lakeside Paddle Boats, Emerald Lake Park</t>
+  </si>
+  <si>
+    <t>31/12/20 3:30pm - 5:30pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
+    <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
+  </si>
+  <si>
+    <t>31/12/20 3:00pm - 5:00pm</t>
+  </si>
+  <si>
+    <t>Frankston</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Sikh Temple Keysborough  198-206 Perry Road, Keysborough</t>
+  </si>
+  <si>
+    <t>1/01/21 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
+  </si>
+  <si>
+    <t>1/01/21 2:00pm-5:00pm</t>
   </si>
 </sst>
 </file>
@@ -478,18 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -546,50 +550,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -597,24 +601,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -622,21 +626,61 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FB780C-CDD1-4167-B914-393569CF2E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51554FBE-0AD8-4DDE-9933-1E6D17021A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28808" yWindow="10387" windowWidth="28816" windowHeight="5221" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -37,88 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Bayside</t>
-  </si>
-  <si>
-    <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
-  </si>
-  <si>
-    <t>31/12/20  3.00pm-3.15pm</t>
-  </si>
-  <si>
-    <t>Case shopped</t>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Sikh Temple Keysborough  198-206 Perry Road, Keysborough</t>
+  </si>
+  <si>
+    <t>1/01/21 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Brighton Beach  Brighton, VIC 3186</t>
-  </si>
-  <si>
-    <t>26/12/20 12:00pm-1:00pm</t>
-  </si>
-  <si>
-    <t>Case attended beach</t>
-  </si>
-  <si>
-    <t>26/12/20 12:00pm-3:00pm</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
-  </si>
-  <si>
-    <t>30/12/20, 3.30pm - 3.45pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>30/12/21, 3.30pm - 3.45pm</t>
-  </si>
-  <si>
-    <t>Emerald</t>
-  </si>
-  <si>
-    <t>Lakeside Paddle Boats, Emerald Lake Park</t>
-  </si>
-  <si>
-    <t>31/12/20 3:30pm - 5:30pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
-  </si>
-  <si>
-    <t>31/12/20 3:00pm - 5:00pm</t>
-  </si>
-  <si>
-    <t>Frankston</t>
-  </si>
-  <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Sikh Temple Keysborough  198-206 Perry Road, Keysborough</t>
-  </si>
-  <si>
-    <t>1/01/21 3:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
-  </si>
-  <si>
-    <t>1/01/21 2:00pm-5:00pm</t>
   </si>
 </sst>
 </file>
@@ -482,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,159 +462,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51554FBE-0AD8-4DDE-9933-1E6D17021A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF80F4D-9B79-48A1-B1ED-A8DCE63A0C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28808" yWindow="10387" windowWidth="28816" windowHeight="5221" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Sikh Temple Keysborough  198-206 Perry Road, Keysborough</t>
-  </si>
-  <si>
-    <t>1/01/21 3:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>Southern Cross</t>
+  </si>
+  <si>
+    <t>Metro trains - Mernda line</t>
+  </si>
+  <si>
+    <t>28/12/2020 14:30 - 14:45</t>
+  </si>
+  <si>
+    <t>Caught train from Southern Cross to Victoria Park station</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -416,15 +416,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF80F4D-9B79-48A1-B1ED-A8DCE63A0C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82D9C2-EAC3-4074-BEA0-54C283570150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,19 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Southern Cross</t>
-  </si>
-  <si>
-    <t>Metro trains - Mernda line</t>
-  </si>
-  <si>
-    <t>28/12/2020 14:30 - 14:45</t>
-  </si>
-  <si>
-    <t>Caught train from Southern Cross to Victoria Park station</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Lakeside Paddle Boats, Emerald Lake Park</t>
+  </si>
+  <si>
+    <t>31/12/20 3:30pm - 5:30pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -416,15 +416,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -1,79 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82D9C2-EAC3-4074-BEA0-54C283570150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Exposure period</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Exist</t>
-  </si>
-  <si>
-    <t>Emerald</t>
-  </si>
-  <si>
-    <t>Lakeside Paddle Boats, Emerald Lake Park</t>
-  </si>
-  <si>
-    <t>31/12/20 3:30pm - 5:30pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -107,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -412,54 +353,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exposure period</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Exist</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bentleigh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22/12/20 12:00pm-12:30pm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22/12/20 6:45pm-7:00pm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coles, Westfield Southland</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22/12/20 11:50am-12:10pm</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22/12/20 12:15pm-12:45pm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Case visited venue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22/12/20 3:50pm-4:05pm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22/12/20 6.30pm-6.45pm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22/12/20 3:30pm-3:50pm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22/12/20 10.30am-11:00am</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Case visited venue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Specsavers, 1004-1005 Westfield Southland</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22/12/20 11:00am-1145am</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30/12/20 10:45am-12:15pm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30/12/20 4:00pm- 5:50pm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30/12/20 10:45am-12:15pm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30/12/20 4:00pm- 5:50pm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4144A9B-AFAF-4600-A98B-FFD828B2A76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55A7FA-E42E-460E-AACD-C1C36A17E7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Location</t>
   </si>
@@ -37,37 +37,43 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>23/12/2- 11:00pm-11:30pm</t>
-  </si>
-  <si>
-    <t>Case attended Federation Square</t>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Woolworths Southland, 1239 Nepean Highway</t>
+  </si>
+  <si>
+    <t>31/12/20 6:00pm - 6:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Hallam</t>
+  </si>
+  <si>
+    <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+  </si>
+  <si>
+    <t>30/12/20 6:15am-6:30am</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Mentone</t>
-  </si>
-  <si>
-    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>23/12/20 11:00am-11:30am</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>23/12/20 2:45pm-3:05pm</t>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+  </si>
+  <si>
+    <t>30/12/20 10:45am-12:15pm</t>
   </si>
   <si>
     <t>Mordialloc</t>
@@ -76,10 +82,22 @@
     <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
   </si>
   <si>
-    <t>23/12/20 8:00am-2:00pm</t>
+    <t>28/12/20 12:00pm-6:00pm</t>
   </si>
   <si>
     <t>Case attended course</t>
+  </si>
+  <si>
+    <t>Wonthaggi</t>
+  </si>
+  <si>
+    <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
+  </si>
+  <si>
+    <t>28/12/20 1:30pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Kmart- shopped for 15 mins</t>
   </si>
 </sst>
 </file>
@@ -443,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,41 +524,58 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55A7FA-E42E-460E-AACD-C1C36A17E7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D45668-90B9-43FC-835C-79901423E31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Location</t>
   </si>
@@ -37,16 +37,34 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Woolworths Southland, 1239 Nepean Highway</t>
-  </si>
-  <si>
-    <t>31/12/20 6:00pm - 6:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store</t>
+    <t>Bentleigh</t>
+  </si>
+  <si>
+    <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
+  </si>
+  <si>
+    <t>24/12/20 12:30pm-1:00pm</t>
+  </si>
+  <si>
+    <t>Case shopped</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Chadstone</t>
+  </si>
+  <si>
+    <t>Chadstone Shopping Centre, Princes Highway</t>
+  </si>
+  <si>
+    <t>26/12/20 6am-1:30pm</t>
+  </si>
+  <si>
+    <t>Case did not attend during infectious period but may have acquired their illness here. Case visited Culture Kings, Huffer, JD Sports, Jay Jays, H&amp;M, Uniqlo, Myer, Superdry, Footlocker, Dumplings Plus</t>
+  </si>
+  <si>
+    <t>Case did not attend during infectious period but may have acquired their illness here. If you attended Chadstone Shopping Centre but did not attend to any of the acquisition site stores listed above, monitor for symptoms - If symptoms develop, immediately get tested and isolate until you receive a negative result.</t>
   </si>
   <si>
     <t>new</t>
@@ -55,34 +73,34 @@
     <t>Hallam</t>
   </si>
   <si>
-    <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
-  </si>
-  <si>
-    <t>30/12/20 6:15am-6:30am</t>
+    <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
+  </si>
+  <si>
+    <t>30/12/20 6:15am - 6:30am</t>
   </si>
   <si>
     <t>Case shopped in store</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>Moorabbin</t>
   </si>
   <si>
     <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
   </si>
   <si>
-    <t>30/12/20 10:45am-12:15pm</t>
+    <t>30/12/20 10:45am - 12:15pm and 4:00pm- 5:50pm</t>
+  </si>
+  <si>
+    <t>30/12/20 4:00pm- 5:50pm</t>
   </si>
   <si>
     <t>Mordialloc</t>
   </si>
   <si>
-    <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
-  </si>
-  <si>
-    <t>28/12/20 12:00pm-6:00pm</t>
+    <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
+  </si>
+  <si>
+    <t>28/12/20 12:00pm - 6:00pm</t>
   </si>
   <si>
     <t>Case attended course</t>
@@ -91,13 +109,13 @@
     <t>Wonthaggi</t>
   </si>
   <si>
-    <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-  </si>
-  <si>
-    <t>28/12/20 1:30pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Kmart- shopped for 15 mins</t>
+    <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
+  </si>
+  <si>
+    <t>28/12/20 1:30pm - 2:30pm</t>
+  </si>
+  <si>
+    <t>Kmart - shopped for 15 mins</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -469,10 +486,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.73046875" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,58 +541,109 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D45668-90B9-43FC-835C-79901423E31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39233FBD-FBFF-441C-9C66-656DAFB139F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -37,85 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Bentleigh</t>
-  </si>
-  <si>
-    <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
-  </si>
-  <si>
-    <t>24/12/20 12:30pm-1:00pm</t>
-  </si>
-  <si>
-    <t>Case shopped</t>
+    <t>Ringwood</t>
+  </si>
+  <si>
+    <t>Block 7 Dumplings, 171 - 175 Maroondah Highway</t>
+  </si>
+  <si>
+    <t>29/12/20 8:10am - 8:45am</t>
+  </si>
+  <si>
+    <t>Case attended store</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Chadstone</t>
-  </si>
-  <si>
-    <t>Chadstone Shopping Centre, Princes Highway</t>
-  </si>
-  <si>
-    <t>26/12/20 6am-1:30pm</t>
-  </si>
-  <si>
-    <t>Case did not attend during infectious period but may have acquired their illness here. Case visited Culture Kings, Huffer, JD Sports, Jay Jays, H&amp;M, Uniqlo, Myer, Superdry, Footlocker, Dumplings Plus</t>
-  </si>
-  <si>
-    <t>Case did not attend during infectious period but may have acquired their illness here. If you attended Chadstone Shopping Centre but did not attend to any of the acquisition site stores listed above, monitor for symptoms - If symptoms develop, immediately get tested and isolate until you receive a negative result.</t>
+    <t>29/12/20 8:10pm - 8:45pm</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>Hallam</t>
-  </si>
-  <si>
-    <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
-  </si>
-  <si>
-    <t>30/12/20 6:15am - 6:30am</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
-  </si>
-  <si>
-    <t>30/12/20 10:45am - 12:15pm and 4:00pm- 5:50pm</t>
-  </si>
-  <si>
-    <t>30/12/20 4:00pm- 5:50pm</t>
-  </si>
-  <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
-  </si>
-  <si>
-    <t>28/12/20 12:00pm - 6:00pm</t>
-  </si>
-  <si>
-    <t>Case attended course</t>
-  </si>
-  <si>
-    <t>Wonthaggi</t>
-  </si>
-  <si>
-    <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
-  </si>
-  <si>
-    <t>28/12/20 1:30pm - 2:30pm</t>
-  </si>
-  <si>
-    <t>Kmart - shopped for 15 mins</t>
   </si>
 </sst>
 </file>
@@ -478,18 +418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.73046875" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -529,121 +469,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2_diff.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39233FBD-FBFF-441C-9C66-656DAFB139F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6971C18-D7FB-44C3-9B93-CE06BB4592D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Location</t>
   </si>
@@ -37,25 +48,37 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Ringwood</t>
-  </si>
-  <si>
-    <t>Block 7 Dumplings, 171 - 175 Maroondah Highway</t>
-  </si>
-  <si>
-    <t>29/12/20 8:10am - 8:45am</t>
-  </si>
-  <si>
-    <t>Case attended store</t>
+    <t>Broadmeadows</t>
+  </si>
+  <si>
+    <t>Broadmeadows Central  (West side of shopping centre, fresh fruit and meat section)  1099/1168 Pascoe Vale Rd  Broadmeadows VIC 3047</t>
+  </si>
+  <si>
+    <t>12:15pm - 1:15pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended fresh fruit and meat section on the west side of the shopping centre</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Hoppers Crossing</t>
+  </si>
+  <si>
+    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
+  </si>
+  <si>
+    <t>6.40am - 7.15am  8/02/21</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>29/12/20 8:10pm - 8:45pm</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>6.40am - 7.15am  8/2/21</t>
   </si>
 </sst>
 </file>
@@ -418,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,19 +492,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
